--- a/fake_data/product_catalogue.xlsx
+++ b/fake_data/product_catalogue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V.SAMYUKTHA\Desktop\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\data-apps-ecommerce-template\fake_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD85DB1-6A2E-4BAD-8027-53459254675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A686784C-00C8-42B2-9800-0B1191C3728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BFE459CE-FED7-4069-B352-18EEF57BAD2C}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
